--- a/Radiologists Report.xlsx
+++ b/Radiologists Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmsssudi\Documents\Research\IEEE Trans. Medical Imaging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyUni\NAM CUOI\DBMS\BTL\MySQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8582E3C6-20E5-4DD3-BDAA-73B61A362140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2970,7 +2971,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3103,7 +3104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3114,8 +3115,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3401,21 +3401,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="A1:B576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="100.28515625" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.33203125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>440</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3559,13 +3559,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3637,13 +3637,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3771,13 +3771,13 @@
         <v>432</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3801,13 +3801,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -3839,13 +3839,13 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -3877,13 +3877,13 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -3931,13 +3931,13 @@
         <v>430</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -4009,13 +4009,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -4031,13 +4031,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -4213,13 +4213,13 @@
         <v>361</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
       <c r="B103" s="5"/>
     </row>
-    <row r="104" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -4275,19 +4275,19 @@
         <v>271</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>110</v>
       </c>
       <c r="B111" s="5"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
       <c r="B112" s="5"/>
     </row>
-    <row r="113" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -4471,13 +4471,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>135</v>
       </c>
       <c r="B136" s="5"/>
     </row>
-    <row r="137" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -4517,19 +4517,19 @@
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>141</v>
       </c>
       <c r="B142" s="5"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>142</v>
       </c>
       <c r="B143" s="5"/>
     </row>
-    <row r="144" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -4841,13 +4841,13 @@
         <v>347</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>182</v>
       </c>
       <c r="B183" s="5"/>
     </row>
-    <row r="184" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -4895,13 +4895,13 @@
         <v>434</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>189</v>
       </c>
       <c r="B190" s="5"/>
     </row>
-    <row r="191" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -5029,13 +5029,13 @@
         <v>333</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>206</v>
       </c>
       <c r="B207" s="5"/>
     </row>
-    <row r="208" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -5179,13 +5179,13 @@
         <v>362</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>225</v>
       </c>
       <c r="B226" s="5"/>
     </row>
-    <row r="227" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>228</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -5225,13 +5225,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>231</v>
       </c>
       <c r="B232" s="5"/>
     </row>
-    <row r="233" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>233</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>235</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>236</v>
       </c>
@@ -5271,19 +5271,19 @@
         <v>339</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>237</v>
       </c>
       <c r="B238" s="5"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>238</v>
       </c>
       <c r="B239" s="5"/>
     </row>
-    <row r="240" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>239</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>241</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>243</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>244</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>245</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>246</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>247</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>248</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>249</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>250</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>251</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>252</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>253</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>254</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>255</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>256</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>257</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>258</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>259</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>260</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>261</v>
       </c>
@@ -5467,13 +5467,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>262</v>
       </c>
       <c r="B263" s="5"/>
     </row>
-    <row r="264" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>263</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>264</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>265</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>266</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>267</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>268</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>269</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>270</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>271</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>272</v>
       </c>
@@ -5553,13 +5553,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>273</v>
       </c>
       <c r="B274" s="5"/>
     </row>
-    <row r="275" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>274</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>275</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>276</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>277</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>278</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>279</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>280</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>281</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>282</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>283</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>284</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>285</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>286</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>287</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>288</v>
       </c>
@@ -5679,13 +5679,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>289</v>
       </c>
       <c r="B290" s="5"/>
     </row>
-    <row r="291" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>290</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>291</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>292</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>293</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>294</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>295</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>296</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>297</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>298</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>299</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>300</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>301</v>
       </c>
@@ -5781,13 +5781,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>302</v>
       </c>
       <c r="B303" s="5"/>
     </row>
-    <row r="304" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>303</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>304</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>305</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>306</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>307</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>308</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>309</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>310</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>311</v>
       </c>
@@ -5859,13 +5859,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>312</v>
       </c>
       <c r="B313" s="5"/>
     </row>
-    <row r="314" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>313</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>314</v>
       </c>
@@ -5881,13 +5881,13 @@
         <v>283</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>315</v>
       </c>
       <c r="B316" s="5"/>
     </row>
-    <row r="317" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>316</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>317</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>318</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>319</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>320</v>
       </c>
@@ -5927,13 +5927,13 @@
         <v>372</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>321</v>
       </c>
       <c r="B322" s="5"/>
     </row>
-    <row r="323" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>322</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>323</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>324</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>325</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>326</v>
       </c>
@@ -5973,19 +5973,19 @@
         <v>218</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>327</v>
       </c>
       <c r="B328" s="5"/>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>328</v>
       </c>
       <c r="B329" s="5"/>
     </row>
-    <row r="330" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>329</v>
       </c>
@@ -5993,13 +5993,13 @@
         <v>284</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>330</v>
       </c>
       <c r="B331" s="5"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>331</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>332</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>333</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>334</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>335</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>336</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>337</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>338</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>339</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>340</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>341</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>342</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>343</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>344</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>345</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>346</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>347</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>348</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>349</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>350</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>351</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>352</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>353</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>354</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <v>355</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>356</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>357</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>358</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>359</v>
       </c>
@@ -6231,19 +6231,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>360</v>
       </c>
       <c r="B361" s="5"/>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>361</v>
       </c>
       <c r="B362" s="5"/>
     </row>
-    <row r="363" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>362</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>363</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>364</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>365</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>366</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>367</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>368</v>
       </c>
@@ -6299,13 +6299,13 @@
         <v>401</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <v>369</v>
       </c>
       <c r="B370" s="5"/>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>370</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>371</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>372</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>373</v>
       </c>
@@ -6337,13 +6337,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <v>374</v>
       </c>
       <c r="B375" s="5"/>
     </row>
-    <row r="376" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
         <v>375</v>
       </c>
@@ -6351,13 +6351,13 @@
         <v>278</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>376</v>
       </c>
       <c r="B377" s="5"/>
     </row>
-    <row r="378" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>377</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
         <v>378</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>379</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>380</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>381</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
         <v>382</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
         <v>383</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
         <v>384</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <v>385</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>386</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
         <v>387</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>388</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>389</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>390</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>391</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>392</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>393</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
         <v>394</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
         <v>395</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>396</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>397</v>
       </c>
@@ -6525,13 +6525,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>398</v>
       </c>
       <c r="B399" s="5"/>
     </row>
-    <row r="400" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
         <v>399</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
         <v>400</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>401</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>402</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <v>403</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>404</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
         <v>405</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>406</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>407</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>408</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>409</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>410</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
         <v>411</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>412</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
         <v>413</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
         <v>414</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
         <v>415</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>416</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>417</v>
       </c>
@@ -6683,13 +6683,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>418</v>
       </c>
       <c r="B419" s="5"/>
     </row>
-    <row r="420" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>419</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
         <v>420</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>421</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
         <v>422</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
         <v>423</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
         <v>424</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
         <v>425</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
         <v>426</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
         <v>427</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
         <v>428</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
         <v>429</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
         <v>430</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
         <v>431</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
         <v>432</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>433</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
         <v>434</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
         <v>435</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>436</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>437</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>438</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
         <v>439</v>
       </c>
@@ -6857,13 +6857,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
         <v>440</v>
       </c>
       <c r="B441" s="5"/>
     </row>
-    <row r="442" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>441</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
         <v>442</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
         <v>443</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
         <v>444</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
         <v>445</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
         <v>446</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
         <v>447</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>448</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
         <v>449</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
         <v>450</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
         <v>451</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
         <v>452</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>453</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
         <v>454</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
         <v>455</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>456</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>457</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
         <v>458</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>459</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
         <v>460</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
         <v>461</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <v>462</v>
       </c>
@@ -7039,13 +7039,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>463</v>
       </c>
       <c r="B464" s="5"/>
     </row>
-    <row r="465" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
         <v>464</v>
       </c>
@@ -7053,13 +7053,13 @@
         <v>297</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
         <v>465</v>
       </c>
       <c r="B466" s="5"/>
     </row>
-    <row r="467" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>466</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
         <v>467</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
         <v>468</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
         <v>469</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
         <v>470</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
         <v>471</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
         <v>472</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
         <v>473</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
         <v>474</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
         <v>475</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>476</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
         <v>477</v>
       </c>
@@ -7155,13 +7155,13 @@
         <v>425</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
         <v>478</v>
       </c>
       <c r="B479" s="5"/>
     </row>
-    <row r="480" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
         <v>479</v>
       </c>
@@ -7169,19 +7169,19 @@
         <v>274</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
         <v>480</v>
       </c>
       <c r="B481" s="5"/>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <v>481</v>
       </c>
       <c r="B482" s="5"/>
     </row>
-    <row r="483" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
         <v>482</v>
       </c>
@@ -7189,13 +7189,13 @@
         <v>395</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
         <v>483</v>
       </c>
       <c r="B484" s="5"/>
     </row>
-    <row r="485" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
         <v>484</v>
       </c>
@@ -7203,13 +7203,13 @@
         <v>321</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
         <v>485</v>
       </c>
       <c r="B486" s="5"/>
     </row>
-    <row r="487" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
         <v>486</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
         <v>487</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
         <v>488</v>
       </c>
@@ -7233,25 +7233,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
         <v>489</v>
       </c>
       <c r="B490" s="5"/>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
         <v>490</v>
       </c>
       <c r="B491" s="5"/>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
         <v>491</v>
       </c>
       <c r="B492" s="5"/>
     </row>
-    <row r="493" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
         <v>492</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
         <v>493</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
         <v>494</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
         <v>495</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
         <v>496</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
         <v>497</v>
       </c>
@@ -7299,13 +7299,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
         <v>498</v>
       </c>
       <c r="B499" s="5"/>
     </row>
-    <row r="500" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
         <v>499</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
         <v>500</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
         <v>501</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
         <v>502</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A504" s="4">
         <v>503</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A505" s="4">
         <v>504</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A506" s="4">
         <v>505</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A507" s="4">
         <v>506</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A508" s="4">
         <v>507</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A509" s="4">
         <v>508</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="510" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A510" s="4">
         <v>509</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A511" s="4">
         <v>510</v>
       </c>
@@ -7401,13 +7401,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="4">
         <v>511</v>
       </c>
       <c r="B512" s="5"/>
     </row>
-    <row r="513" spans="1:2" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A513" s="4">
         <v>512</v>
       </c>
@@ -7415,13 +7415,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="4">
         <v>513</v>
       </c>
       <c r="B514" s="5"/>
     </row>
-    <row r="515" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A515" s="4">
         <v>514</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A516" s="4">
         <v>515</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A517" s="4">
         <v>516</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A518" s="4">
         <v>517</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="519" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A519" s="4">
         <v>518</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A520" s="4">
         <v>519</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A521" s="4">
         <v>520</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A522" s="4">
         <v>521</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A523" s="4">
         <v>522</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="4">
         <v>523</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A525" s="4">
         <v>524</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A526" s="4">
         <v>525</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A527" s="4">
         <v>526</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A528" s="4">
         <v>527</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A529" s="4">
         <v>528</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A530" s="4">
         <v>529</v>
       </c>
@@ -7549,13 +7549,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="4">
         <v>530</v>
       </c>
       <c r="B531" s="5"/>
     </row>
-    <row r="532" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A532" s="4">
         <v>531</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A533" s="4">
         <v>532</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="4">
         <v>533</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A535" s="4">
         <v>534</v>
       </c>
@@ -7587,13 +7587,13 @@
         <v>396</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="4">
         <v>535</v>
       </c>
       <c r="B536" s="5"/>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="4">
         <v>536</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A538" s="4">
         <v>537</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="539" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A539" s="4">
         <v>538</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="540" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A540" s="4">
         <v>539</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A541" s="4">
         <v>540</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="542" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A542" s="4">
         <v>541</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A543" s="4">
         <v>542</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="544" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A544" s="4">
         <v>543</v>
       </c>
@@ -7657,13 +7657,13 @@
         <v>342</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="4">
         <v>544</v>
       </c>
       <c r="B545" s="5"/>
     </row>
-    <row r="546" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A546" s="4">
         <v>545</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A547" s="4">
         <v>546</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A548" s="4">
         <v>547</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A549" s="4">
         <v>548</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="4">
         <v>549</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A551" s="4">
         <v>550</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
         <v>551</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A553" s="4">
         <v>552</v>
       </c>
@@ -7727,19 +7727,19 @@
         <v>484</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="4">
         <v>553</v>
       </c>
       <c r="B554" s="5"/>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="4">
         <v>554</v>
       </c>
       <c r="B555" s="5"/>
     </row>
-    <row r="556" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A556" s="4">
         <v>555</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A557" s="4">
         <v>556</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A558" s="4">
         <v>557</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A559" s="4">
         <v>558</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A560" s="4">
         <v>559</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A561" s="4">
         <v>560</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A562" s="4">
         <v>561</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="4">
         <v>562</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A564" s="4">
         <v>563</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A565" s="4">
         <v>564</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="566" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A566" s="4">
         <v>565</v>
       </c>
@@ -7827,13 +7827,13 @@
         <v>330</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="4">
         <v>566</v>
       </c>
       <c r="B567" s="5"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="4">
         <v>567</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="569" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A569" s="4">
         <v>568</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A570" s="4">
         <v>569</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A571" s="4">
         <v>570</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A572" s="4">
         <v>571</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="4">
         <v>572</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A574" s="4">
         <v>573</v>
       </c>
@@ -7889,22 +7889,22 @@
         <v>409</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="4">
         <v>574</v>
       </c>
       <c r="B575" s="5"/>
     </row>
-    <row r="576" spans="1:2" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="8">
+    <row r="576" spans="1:2" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="7">
         <v>575</v>
       </c>
-      <c r="B576" s="9" t="s">
+      <c r="B576" s="8" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B575">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B575">
     <sortCondition ref="A1:A575"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
